--- a/assets/Excells/cotisation2.xlsx
+++ b/assets/Excells/cotisation2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC023A-3756-2B44-B44C-FC3BD22926DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821D6D7C-6A20-D54B-89E3-BE5057A3BC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16740" xr2:uid="{B2B8A21E-6BB3-5B45-AED9-FE6A9F85F52E}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>Nom</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Janvier</t>
   </si>
@@ -600,9 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA31B897-6A39-2149-A74C-EEDD8F84773A}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -611,52 +606,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3">
         <v>25</v>
@@ -703,7 +696,7 @@
     </row>
     <row r="3" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>25</v>
@@ -749,7 +742,7 @@
     </row>
     <row r="4" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>25</v>
@@ -791,7 +784,7 @@
     </row>
     <row r="5" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>25</v>
@@ -837,7 +830,7 @@
     </row>
     <row r="6" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3">
         <v>25</v>
@@ -883,7 +876,7 @@
     </row>
     <row r="7" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <v>25</v>
@@ -925,7 +918,7 @@
     </row>
     <row r="8" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3">
         <v>25</v>
@@ -969,7 +962,7 @@
     </row>
     <row r="9" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3">
         <v>25</v>
@@ -1011,7 +1004,7 @@
     </row>
     <row r="10" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>25</v>
@@ -1057,7 +1050,7 @@
     </row>
     <row r="11" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
         <v>25</v>
@@ -1103,7 +1096,7 @@
     </row>
     <row r="12" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <v>25</v>
@@ -1147,7 +1140,7 @@
     </row>
     <row r="13" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
         <v>25</v>
@@ -1191,7 +1184,7 @@
     </row>
     <row r="14" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3">
         <v>25</v>
@@ -1237,7 +1230,7 @@
     </row>
     <row r="15" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3">
         <v>25</v>
@@ -1283,7 +1276,7 @@
     </row>
     <row r="16" spans="1:16" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>25</v>
@@ -1329,7 +1322,7 @@
     </row>
     <row r="17" spans="1:15" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3">
         <v>25</v>
@@ -1392,7 +1385,7 @@
     </row>
     <row r="19" spans="1:15" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
